--- a/src/test/resources/testdata/orangehrm_data.xlsx
+++ b/src/test/resources/testdata/orangehrm_data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Аскат Наринбетов\IdeaProjects\Askat_Narinbetov-testing6\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18E304A1-FCB9-4D4C-9BF5-BA1127BB4D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B51B22-881A-48F8-A7A7-ED67C0C0D65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{323C2466-CF23-40F2-A5D7-3BCBC8057446}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,10 +35,63 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+  <si>
+    <t>tcId</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>wrongpass</t>
+  </si>
+  <si>
+    <t>INVALID</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -67,8 +120,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -403,12 +462,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6AF357-2FB2-4AE0-892E-96A25404CEFE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.53125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="15.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>